--- a/assets/系統清單資訊.xlsx
+++ b/assets/系統清單資訊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zoe_GitHub\practice\system-release-workflow\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071E13C-8C00-499C-BEDF-2944331CA2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC488B0-F462-475D-BAAE-57401B1318EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C980F719-0C4E-44CF-A63E-5D7F9E930C52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C980F719-0C4E-44CF-A63E-5D7F9E930C52}"/>
   </bookViews>
   <sheets>
     <sheet name="QRY_APLIST_EXPO_20250305161218" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
   <si>
     <t>主要代號</t>
   </si>
@@ -82,18 +82,12 @@
     <t>永豐學堂</t>
   </si>
   <si>
-    <t>011764-林子騏</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>相同eMail查詢</t>
   </si>
   <si>
-    <t>011138-陳佩吟</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -139,45 +133,18 @@
     <t>支援系統部核心支援科</t>
   </si>
   <si>
-    <t>011573-何立山夆</t>
-  </si>
-  <si>
-    <t>005414-陳登龍</t>
-  </si>
-  <si>
     <t>經紀系統部跨境業務科</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>009582-黃自達</t>
-  </si>
-  <si>
-    <t>011360-陳迪亨</t>
-  </si>
-  <si>
-    <t>011669-俞冠丞</t>
-  </si>
-  <si>
-    <t>012630-林俊佑</t>
-  </si>
-  <si>
-    <t>009673-莊清男</t>
-  </si>
-  <si>
-    <t>009481-林凡茜</t>
-  </si>
-  <si>
     <t>PONTUS系統</t>
   </si>
   <si>
     <t>Python API</t>
   </si>
   <si>
-    <t>012910-張宇倫</t>
-  </si>
-  <si>
     <t>新證期交易系統</t>
   </si>
   <si>
@@ -188,9 +155,6 @@
   </si>
   <si>
     <t>託管系統</t>
-  </si>
-  <si>
-    <t>012766-莊博淳</t>
   </si>
   <si>
     <t>期期自FSPEEDY</t>
@@ -252,6 +216,35 @@
   </si>
   <si>
     <t>U31</t>
+  </si>
+  <si>
+    <t>eLeader</t>
+  </si>
+  <si>
+    <t>eLeader(Cmoney盤後資料)</t>
+  </si>
+  <si>
+    <t>QTrade</t>
+  </si>
+  <si>
+    <t>B01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -346,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,6 +351,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF8247-1237-4BC1-BDC9-0D911391FD83}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -746,7 +742,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -763,9 +759,7 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
@@ -775,16 +769,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -792,9 +786,7 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,16 +796,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -821,9 +813,7 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,16 +823,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -850,9 +840,7 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
@@ -862,16 +850,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -879,9 +867,7 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
@@ -891,16 +877,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -908,9 +894,7 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
@@ -920,16 +904,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -937,9 +921,7 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
@@ -949,16 +931,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -966,9 +948,7 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,10 +958,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -993,11 +973,9 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,10 +985,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1024,22 +1002,20 @@
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1053,9 +1029,7 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,10 +1039,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1080,11 +1054,9 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,10 +1066,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1109,11 +1081,9 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,10 +1093,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1138,11 +1108,9 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,10 +1120,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1167,11 +1135,9 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,10 +1147,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1196,24 +1162,22 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1225,11 +1189,9 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,10 +1201,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1254,15 +1216,92 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
